--- a/communication_build.csv.xlsx
+++ b/communication_build.csv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14680"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="25360" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="communication_build" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,9 @@
   </sheetPr>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
